--- a/questionnaires/List_questions_different_formulations_EN.xlsx
+++ b/questionnaires/List_questions_different_formulations_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\oecd_climate\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
   <si>
     <t>Question Number</t>
   </si>
@@ -120,10 +120,6 @@
   </si>
   <si>
     <t>Q242/Q3.2</t>
-  </si>
-  <si>
-    <t>Good insulation can keep a building warm in the winter and cool in the summer.
-How do you rate the insulation of your accommodation?</t>
   </si>
   <si>
     <t>Q243</t>
@@ -333,14 +329,53 @@
   </si>
   <si>
     <t>Good insulation can keep a building cool in the summer.  How do you rate the insulation of your accommodation?</t>
+  </si>
+  <si>
+    <t>Good insulation can keep a building warm in the winter and cool in the summer.
+How do you rate the insulation of your accommodation?</t>
+  </si>
+  <si>
+    <t>policy_tax_fuels</t>
+  </si>
+  <si>
+    <t>net_zero_feasible</t>
+  </si>
+  <si>
+    <t>footprint_tr_coach</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Only in the US is the question about the number of children</t>
+  </si>
+  <si>
+    <t>children/Nb_children__14/Nb_children</t>
+  </si>
+  <si>
+    <t>vote, income, wealth, heating/gas_expenses</t>
+  </si>
+  <si>
+    <t>Questions with differences in figures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -368,10 +403,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -688,383 +727,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="47.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="1" t="s">
+    <row r="24" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="1" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="2" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="2" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="2" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>